--- a/projeto/centros_de_custo.xlsx
+++ b/projeto/centros_de_custo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8501A1-699C-44A4-8A9C-C56E54DB128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54375FB-C8B9-425F-AA57-D4BB6FEE0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{1458C256-756D-4BF1-B610-992632ACD84E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
   <si>
     <t>d7f01dc1-d4cf-4158-ae39-003526a50440</t>
   </si>
@@ -810,6 +810,12 @@
   </si>
   <si>
     <t>DIOR CIDADE JARDIM</t>
+  </si>
+  <si>
+    <t>72c897a1-db2e-4540-a228-2125c12da24a</t>
+  </si>
+  <si>
+    <t>FENDI</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D22BB-575F-489C-9799-F85DA17AF1ED}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2620,6 +2626,17 @@
         <v>179</v>
       </c>
     </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>209</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/projeto/centros_de_custo.xlsx
+++ b/projeto/centros_de_custo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\NIBO WEB API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54375FB-C8B9-425F-AA57-D4BB6FEE0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D2BB3-37F7-4D04-BADF-FD0DB1B1D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{1458C256-756D-4BF1-B610-992632ACD84E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="262">
   <si>
     <t>d7f01dc1-d4cf-4158-ae39-003526a50440</t>
   </si>
@@ -816,6 +816,12 @@
   </si>
   <si>
     <t>FENDI</t>
+  </si>
+  <si>
+    <t>e155241e-3fba-4ff8-9dcb-b7e792eb03b1</t>
+  </si>
+  <si>
+    <t>NEW ERA</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D22BB-575F-489C-9799-F85DA17AF1ED}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2637,7 +2643,19 @@
         <v>258</v>
       </c>
     </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>489</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>